--- a/biology/Botanique/Tabernaemontana_echinata/Tabernaemontana_echinata.xlsx
+++ b/biology/Botanique/Tabernaemontana_echinata/Tabernaemontana_echinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabernaemontana echinata est une espèce de plantes à fleurs de la famille des Apocynaceae (famille des pervenches). C'est un arbuste trouvé en Guyane.
 Sa taxonomie est confuse car le matériel d'étude original est un mélange d'au moins 3 taxons différents : des feuilles de T. undulata Vahl, 1798, des fruits épineux de T. heterophylla Vahl, 1798 (auquel l'épithète spécifique echinata se réfère), conservés dans l'herbier de Jean-Jacques Rousseau à Paris, ainsi qu'une branche stérile de T. undulata Vahl, 1798, et une branche avec des boutons floraux de T. siphilitica (L.f.) Leeuwenberg, 1984. 
-Aussi, malgré l'antériorité et une tentative de leptotypification par Allgore (basée sur la branche de T. siphilitica)[3], et pour des raisons de non-usage, Rafaël Govaerts a proposé de rejeter ce nom[4].
+Aussi, malgré l'antériorité et une tentative de leptotypification par Allgore (basée sur la branche de T. siphilitica), et pour des raisons de non-usage, Rafaël Govaerts a proposé de rejeter ce nom.
 NB : il ne faut pas confondre Tabernaemontana echinata Aubl., 1775 avec son homonyme Tabernaemontana echinata Vell., 1829 (= Tabernaemontana hystrix Steud., 1840).
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en propose le protologue suivant[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en propose le protologue suivant : 
 « TABERNAEMONTANA (echinata) foliis oppoſitis, ovato-oblongis, acuminatis, fructu echinato. (TABULA 103.) 
 Frutex caules plures lignoſos, nodoſos, ramoſos, quinque aut ſex-pedales è radice emittens. Rami &amp; ramuſculi oppoſiti ; folia oppoſita, ovato-oblonga, acuminata, ad margines undulata, ſupernè glabra, viridia, infernè ſubtomentoſa, albicantia, integerrima, ſubſeſſilia, baſi amplexantia. Flores coryrnboſi, terminates, &amp; intrà bifurcationem ramorum. Corymbus pedunculo brevi ſuffultus, ad baſim membranula involutus eſt, ut &amp; pedunculi partiales. Corolla flaveſcens, odoris grati. Capsulæ binæ, ovatar, echinatæ, reflexæ, bivalves. 
 Florebat fructumque ferebat Auguſto. Habitat Aroura locis incultis. 
